--- a/Planning/currency.xlsx
+++ b/Planning/currency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcbest/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcbest/Desktop/Projects/Python/Django/stock_portfolio_tracker/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A98FA-14B8-3647-9643-FB261FC669A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606255F8-0150-B949-B77E-9ABC227D44E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F9183D65-89D1-224B-AB16-154BFED59D1E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{F9183D65-89D1-224B-AB16-154BFED59D1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1212,9 +1212,6 @@
     <t>Zimbabwe Dollar</t>
   </si>
   <si>
-    <t>currency_id</t>
-  </si>
-  <si>
     <t>currency_code</t>
   </si>
   <si>
@@ -1222,6 +1219,9 @@
   </si>
   <si>
     <t>currency_symbol</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1601,12 +1601,12 @@
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1615,16 +1615,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
